--- a/charts.xlsx
+++ b/charts.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -404,79 +405,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.005962</c:v>
+                  <c:v>0.008554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.034102</c:v>
+                  <c:v>0.025445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.066819</c:v>
+                  <c:v>0.041113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.116562</c:v>
+                  <c:v>0.064305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.092993</c:v>
+                  <c:v>0.078218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.179819</c:v>
+                  <c:v>0.11681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.257796</c:v>
+                  <c:v>0.173703</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.365483</c:v>
+                  <c:v>0.238803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43456</c:v>
+                  <c:v>0.34212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.512039</c:v>
+                  <c:v>0.440002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.659571</c:v>
+                  <c:v>0.537874</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.796286</c:v>
+                  <c:v>0.665153</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.948588</c:v>
+                  <c:v>0.800572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.122422</c:v>
+                  <c:v>0.93974</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.314649</c:v>
+                  <c:v>1.056022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.475541</c:v>
+                  <c:v>1.246295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.703038</c:v>
+                  <c:v>1.410302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.943136</c:v>
+                  <c:v>1.569724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.14411</c:v>
+                  <c:v>1.8005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.434013</c:v>
+                  <c:v>2.012398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.30625</c:v>
+                  <c:v>2.209061</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.885594</c:v>
+                  <c:v>2.462872</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.507101</c:v>
+                  <c:v>2.685343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.636861</c:v>
+                  <c:v>2.948021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.918892</c:v>
+                  <c:v>3.232205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,79 +638,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.00686</c:v>
+                  <c:v>0.000594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.027643</c:v>
+                  <c:v>0.002419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06455</c:v>
+                  <c:v>0.004534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.118494</c:v>
+                  <c:v>0.008677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.173845</c:v>
+                  <c:v>0.012814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2496</c:v>
+                  <c:v>0.01783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.365063</c:v>
+                  <c:v>0.022988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.465106</c:v>
+                  <c:v>0.040348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.559133</c:v>
+                  <c:v>0.039577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.708501</c:v>
+                  <c:v>0.052263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.840171</c:v>
+                  <c:v>0.060819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.999067</c:v>
+                  <c:v>0.074259</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.212564</c:v>
+                  <c:v>0.086801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.402154</c:v>
+                  <c:v>0.098321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.558373</c:v>
+                  <c:v>0.116471</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.784667</c:v>
+                  <c:v>0.129843</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.025947</c:v>
+                  <c:v>0.147302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.227914</c:v>
+                  <c:v>0.16387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.523436</c:v>
+                  <c:v>0.194065</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.729954</c:v>
+                  <c:v>0.201051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.092265</c:v>
+                  <c:v>0.221075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.356209</c:v>
+                  <c:v>0.240306</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.581432</c:v>
+                  <c:v>0.278882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.991961</c:v>
+                  <c:v>0.293408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.316272</c:v>
+                  <c:v>0.311366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,90 +871,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.001391</c:v>
+                  <c:v>0.001271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.004478</c:v>
+                  <c:v>0.003754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.009589</c:v>
+                  <c:v>0.008347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.017434</c:v>
+                  <c:v>0.015049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.026342</c:v>
+                  <c:v>0.021764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.042598</c:v>
+                  <c:v>0.030592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05428</c:v>
+                  <c:v>0.041405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.065358</c:v>
+                  <c:v>0.057074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.096255</c:v>
+                  <c:v>0.073118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.112022</c:v>
+                  <c:v>0.119488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.135179</c:v>
+                  <c:v>0.109811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.154932</c:v>
+                  <c:v>0.134155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.190433</c:v>
+                  <c:v>0.154941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21817</c:v>
+                  <c:v>0.176038</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.248255</c:v>
+                  <c:v>0.197088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.270725</c:v>
+                  <c:v>0.239748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.316633</c:v>
+                  <c:v>0.260114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.358366</c:v>
+                  <c:v>0.295331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.383524</c:v>
+                  <c:v>0.322073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.441279</c:v>
+                  <c:v>0.364885</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.506441</c:v>
+                  <c:v>0.39315</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.530726</c:v>
+                  <c:v>0.438015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.583833</c:v>
+                  <c:v>0.475896</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.61852</c:v>
+                  <c:v>0.519218</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.670019</c:v>
+                  <c:v>0.554263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75861756"/>
-        <c:axId val="35882330"/>
+        <c:axId val="96133143"/>
+        <c:axId val="75617937"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75861756"/>
+        <c:axId val="96133143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,12 +996,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35882330"/>
+        <c:crossAx val="75617937"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35882330"/>
+        <c:axId val="75617937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1043,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75861756"/>
+        <c:crossAx val="96133143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1292,79 +1293,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000181</c:v>
+                  <c:v>0.000138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000514</c:v>
+                  <c:v>0.00028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000813</c:v>
+                  <c:v>0.000619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000959</c:v>
+                  <c:v>0.000789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.001303</c:v>
+                  <c:v>0.001065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001436</c:v>
+                  <c:v>0.001277</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.001615</c:v>
+                  <c:v>0.001408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001862</c:v>
+                  <c:v>0.001777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002184</c:v>
+                  <c:v>0.001783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002543</c:v>
+                  <c:v>0.001907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002643</c:v>
+                  <c:v>0.002044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002826</c:v>
+                  <c:v>0.002414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.002983</c:v>
+                  <c:v>0.00246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00344</c:v>
+                  <c:v>0.00294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.003406</c:v>
+                  <c:v>0.002839</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.003659</c:v>
+                  <c:v>0.003008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004047</c:v>
+                  <c:v>0.003427</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004359</c:v>
+                  <c:v>0.003378</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.005092</c:v>
+                  <c:v>0.003872</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004786</c:v>
+                  <c:v>0.003756</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.004927</c:v>
+                  <c:v>0.003759</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.005446</c:v>
+                  <c:v>0.004829</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00666</c:v>
+                  <c:v>0.003957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007474</c:v>
+                  <c:v>0.00482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.006124</c:v>
+                  <c:v>0.005832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,79 +1526,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000104</c:v>
+                  <c:v>8.9E-005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.00022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000413</c:v>
+                  <c:v>0.000353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000555</c:v>
+                  <c:v>0.000509</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.000636</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.000692</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000784</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000887</c:v>
+                  <c:v>0.000782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000982</c:v>
+                  <c:v>0.000932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001259</c:v>
+                  <c:v>0.001029</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001298</c:v>
+                  <c:v>0.001169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.001429</c:v>
+                  <c:v>0.001287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.001623</c:v>
+                  <c:v>0.001362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001569</c:v>
+                  <c:v>0.001489</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001638</c:v>
+                  <c:v>0.001665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001829</c:v>
+                  <c:v>0.001788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001895</c:v>
+                  <c:v>0.001797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00224</c:v>
+                  <c:v>0.002188</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.002212</c:v>
+                  <c:v>0.002525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.002281</c:v>
+                  <c:v>0.002125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.002265</c:v>
+                  <c:v>0.002241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00255</c:v>
+                  <c:v>0.002074</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00256</c:v>
+                  <c:v>0.002474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00276</c:v>
+                  <c:v>0.002391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.002961</c:v>
+                  <c:v>0.002293</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.003</c:v>
+                  <c:v>0.002674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,79 +1759,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000175</c:v>
+                  <c:v>0.000159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000358</c:v>
+                  <c:v>0.000331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000627</c:v>
+                  <c:v>0.000524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000816</c:v>
+                  <c:v>0.000726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000966</c:v>
+                  <c:v>0.000844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001274</c:v>
+                  <c:v>0.001124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.001547</c:v>
+                  <c:v>0.001152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001656</c:v>
+                  <c:v>0.001383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001767</c:v>
+                  <c:v>0.001423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002115</c:v>
+                  <c:v>0.001705</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002161</c:v>
+                  <c:v>0.001798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002783</c:v>
+                  <c:v>0.002199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.002584</c:v>
+                  <c:v>0.00205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.002765</c:v>
+                  <c:v>0.002494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004349</c:v>
+                  <c:v>0.002683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.003873</c:v>
+                  <c:v>0.00265</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.004385</c:v>
+                  <c:v>0.003008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.005156</c:v>
+                  <c:v>0.003033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004283</c:v>
+                  <c:v>0.003445</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004653</c:v>
+                  <c:v>0.003516</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.004619</c:v>
+                  <c:v>0.003795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.004679</c:v>
+                  <c:v>0.003863</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.005081</c:v>
+                  <c:v>0.004159</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005495</c:v>
+                  <c:v>0.004654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.005393</c:v>
+                  <c:v>0.004749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,90 +1992,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.0001</c:v>
+                  <c:v>0.000107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000224</c:v>
+                  <c:v>0.000205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000395</c:v>
+                  <c:v>0.000312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000558</c:v>
+                  <c:v>0.000439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000651</c:v>
+                  <c:v>0.000576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000794</c:v>
+                  <c:v>0.000647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000963</c:v>
+                  <c:v>0.00069</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001027</c:v>
+                  <c:v>0.000879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001104</c:v>
+                  <c:v>0.000877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001278</c:v>
+                  <c:v>0.000998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.001417</c:v>
+                  <c:v>0.001145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00168</c:v>
+                  <c:v>0.001175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001629</c:v>
+                  <c:v>0.001453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001924</c:v>
+                  <c:v>0.001571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001734</c:v>
+                  <c:v>0.001587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.002805</c:v>
+                  <c:v>0.001592</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.002369</c:v>
+                  <c:v>0.001715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.002267</c:v>
+                  <c:v>0.001704</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.003024</c:v>
+                  <c:v>0.002103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.002481</c:v>
+                  <c:v>0.001959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.002978</c:v>
+                  <c:v>0.002454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.002382</c:v>
+                  <c:v>0.002059</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00374</c:v>
+                  <c:v>0.002569</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.002917</c:v>
+                  <c:v>0.002475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.003127</c:v>
+                  <c:v>0.002557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="56599860"/>
-        <c:axId val="52398710"/>
+        <c:axId val="26762883"/>
+        <c:axId val="43577603"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56599860"/>
+        <c:axId val="26762883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,12 +2117,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52398710"/>
+        <c:crossAx val="43577603"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52398710"/>
+        <c:axId val="43577603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2164,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56599860"/>
+        <c:crossAx val="26762883"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2646,79 +2647,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>998842</c:v>
+                  <c:v>1004605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4020299</c:v>
+                  <c:v>4023754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9129557</c:v>
+                  <c:v>8976581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15781795</c:v>
+                  <c:v>15685758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24799355</c:v>
+                  <c:v>24940811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36026883</c:v>
+                  <c:v>36182129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49006101</c:v>
+                  <c:v>49337495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64527730</c:v>
+                  <c:v>63285891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80330299</c:v>
+                  <c:v>81145385</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99654431</c:v>
+                  <c:v>99930389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121373359</c:v>
+                  <c:v>121425919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143637517</c:v>
+                  <c:v>143430533</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>170816093</c:v>
+                  <c:v>169346187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>196241032</c:v>
+                  <c:v>195836616</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225175079</c:v>
+                  <c:v>226456763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256106880</c:v>
+                  <c:v>255634953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>289159492</c:v>
+                  <c:v>289687662</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>323593273</c:v>
+                  <c:v>325202567</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>359818969</c:v>
+                  <c:v>362704497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>398940990</c:v>
+                  <c:v>399411025</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>441889075</c:v>
+                  <c:v>440696860</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>485022054</c:v>
+                  <c:v>483627725</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>525829150</c:v>
+                  <c:v>527798125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>576194309</c:v>
+                  <c:v>574788348</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>624783762</c:v>
+                  <c:v>625115172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,11 +2959,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27365652"/>
-        <c:axId val="65097900"/>
+        <c:axId val="30482917"/>
+        <c:axId val="76259742"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27365652"/>
+        <c:axId val="30482917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,12 +3005,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65097900"/>
+        <c:crossAx val="76259742"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65097900"/>
+        <c:axId val="76259742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27365652"/>
+        <c:crossAx val="30482917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3301,79 +3302,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>19405</c:v>
+                  <c:v>19398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42880</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67833</c:v>
+                  <c:v>67895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93658</c:v>
+                  <c:v>93675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120505</c:v>
+                  <c:v>120435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147625</c:v>
+                  <c:v>147734</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175366</c:v>
+                  <c:v>175365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203353</c:v>
+                  <c:v>203259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231817</c:v>
+                  <c:v>231969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>261065</c:v>
+                  <c:v>260866</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>290106</c:v>
+                  <c:v>290152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>319318</c:v>
+                  <c:v>319381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>349015</c:v>
+                  <c:v>349008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>378878</c:v>
+                  <c:v>378724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>408648</c:v>
+                  <c:v>408598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>438545</c:v>
+                  <c:v>438673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>469035</c:v>
+                  <c:v>469064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>499800</c:v>
+                  <c:v>499937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530782</c:v>
+                  <c:v>530813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>561589</c:v>
+                  <c:v>561925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>592796</c:v>
+                  <c:v>592983</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>624267</c:v>
+                  <c:v>624047</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>655297</c:v>
+                  <c:v>655338</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>686920</c:v>
+                  <c:v>686583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>717959</c:v>
+                  <c:v>718327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,79 +3535,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>10714</c:v>
+                  <c:v>25356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24931</c:v>
+                  <c:v>52295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41116</c:v>
+                  <c:v>90425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57957</c:v>
+                  <c:v>122720</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69682</c:v>
+                  <c:v>149106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91889</c:v>
+                  <c:v>188872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118424</c:v>
+                  <c:v>229137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131071</c:v>
+                  <c:v>259654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150488</c:v>
+                  <c:v>308889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171481</c:v>
+                  <c:v>311086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177214</c:v>
+                  <c:v>370887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192412</c:v>
+                  <c:v>396373</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>239340</c:v>
+                  <c:v>457988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>207392</c:v>
+                  <c:v>469466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>282531</c:v>
+                  <c:v>510650</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>304445</c:v>
+                  <c:v>609373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>279465</c:v>
+                  <c:v>619580</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298308</c:v>
+                  <c:v>673008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>358181</c:v>
+                  <c:v>683072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>350996</c:v>
+                  <c:v>752453</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>384050</c:v>
+                  <c:v>828726</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>389189</c:v>
+                  <c:v>789337</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>398385</c:v>
+                  <c:v>891115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>435971</c:v>
+                  <c:v>899371</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>445397</c:v>
+                  <c:v>930959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,79 +3768,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>18078</c:v>
+                  <c:v>17678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51658</c:v>
+                  <c:v>47835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67153</c:v>
+                  <c:v>68438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119731</c:v>
+                  <c:v>112080</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148561</c:v>
+                  <c:v>154873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175527</c:v>
+                  <c:v>187598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229453</c:v>
+                  <c:v>224947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>295072</c:v>
+                  <c:v>293046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>314755</c:v>
+                  <c:v>286240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389939</c:v>
+                  <c:v>340707</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>367337</c:v>
+                  <c:v>372628</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>473408</c:v>
+                  <c:v>463693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>467613</c:v>
+                  <c:v>501043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>527276</c:v>
+                  <c:v>515922</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>624712</c:v>
+                  <c:v>555796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>747020</c:v>
+                  <c:v>733325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>658561</c:v>
+                  <c:v>616578</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>723242</c:v>
+                  <c:v>764186</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>756397</c:v>
+                  <c:v>755260</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>953362</c:v>
+                  <c:v>881783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>984232</c:v>
+                  <c:v>988507</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>883212</c:v>
+                  <c:v>950544</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>978825</c:v>
+                  <c:v>930366</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1112974</c:v>
+                  <c:v>1145043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1223883</c:v>
+                  <c:v>1197600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4000,90 +4001,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>14160</c:v>
+                  <c:v>25481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27367</c:v>
+                  <c:v>52726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53509</c:v>
+                  <c:v>90747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77480</c:v>
+                  <c:v>123197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83576</c:v>
+                  <c:v>149542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138198</c:v>
+                  <c:v>189150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144100</c:v>
+                  <c:v>230241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139127</c:v>
+                  <c:v>260418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153030</c:v>
+                  <c:v>309876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181213</c:v>
+                  <c:v>312504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209083</c:v>
+                  <c:v>372062</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192937</c:v>
+                  <c:v>398087</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>263300</c:v>
+                  <c:v>459470</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>259991</c:v>
+                  <c:v>471380</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273981</c:v>
+                  <c:v>512434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301844</c:v>
+                  <c:v>610678</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>371594</c:v>
+                  <c:v>621998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>356495</c:v>
+                  <c:v>675282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>418367</c:v>
+                  <c:v>685828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>401089</c:v>
+                  <c:v>755315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>438893</c:v>
+                  <c:v>830814</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>455734</c:v>
+                  <c:v>792147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>463384</c:v>
+                  <c:v>894663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>533049</c:v>
+                  <c:v>902809</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>487082</c:v>
+                  <c:v>934226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="7943841"/>
-        <c:axId val="43552705"/>
+        <c:axId val="4599879"/>
+        <c:axId val="9020484"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7943841"/>
+        <c:axId val="4599879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,12 +4126,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43552705"/>
+        <c:crossAx val="9020484"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43552705"/>
+        <c:axId val="9020484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4173,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7943841"/>
+        <c:crossAx val="4599879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4228,16 +4229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4245,8 +4246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5837040" y="1541160"/>
-        <a:ext cx="8125560" cy="4514400"/>
+        <a:off x="360" y="360"/>
+        <a:ext cx="8137800" cy="4130280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4258,25 +4259,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30240</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>172800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="1" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5817960" y="6101640"/>
-        <a:ext cx="8156160" cy="4276440"/>
+        <a:off x="8272800" y="38160"/>
+        <a:ext cx="8168760" cy="4025520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4288,25 +4289,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5837040" y="10340280"/>
-        <a:ext cx="8144640" cy="4661280"/>
+        <a:off x="0" y="4264560"/>
+        <a:ext cx="8156880" cy="4044600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4318,25 +4319,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5837040" y="14963760"/>
-        <a:ext cx="7980120" cy="4806000"/>
+        <a:off x="8272800" y="4284000"/>
+        <a:ext cx="8144280" cy="4805280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4356,15 +4357,16 @@
   </sheetPr>
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T59" activeCellId="0" sqref="T59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,7 +4380,7 @@
         <v>3998000</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0.005962</v>
+        <v>0.008554</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4394,7 @@
         <v>15996000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.034102</v>
+        <v>0.025445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4408,7 @@
         <v>35994000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.066819</v>
+        <v>0.041113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,7 +4422,7 @@
         <v>63992000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.116562</v>
+        <v>0.064305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4436,7 @@
         <v>99990000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.092993</v>
+        <v>0.078218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4450,7 @@
         <v>143988000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.179819</v>
+        <v>0.11681</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4464,7 @@
         <v>195986000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.257796</v>
+        <v>0.173703</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4478,7 @@
         <v>255984000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.365483</v>
+        <v>0.238803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +4492,7 @@
         <v>323982000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.43456</v>
+        <v>0.34212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,7 +4506,7 @@
         <v>399980000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.512039</v>
+        <v>0.440002</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4520,7 @@
         <v>483978000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.659571</v>
+        <v>0.537874</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4534,7 @@
         <v>575976000</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.796286</v>
+        <v>0.665153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,7 +4548,7 @@
         <v>675974000</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.948588</v>
+        <v>0.800572</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4562,7 @@
         <v>783972000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1.122422</v>
+        <v>0.93974</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4576,7 @@
         <v>899970000</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.314649</v>
+        <v>1.056022</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,7 +4590,7 @@
         <v>1023968000</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.475541</v>
+        <v>1.246295</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,7 +4604,7 @@
         <v>1155966000</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.703038</v>
+        <v>1.410302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4618,7 @@
         <v>1295964000</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.943136</v>
+        <v>1.569724</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4632,7 @@
         <v>1443962000</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2.14411</v>
+        <v>1.8005</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4646,7 @@
         <v>1599960000</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2.434013</v>
+        <v>2.012398</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4660,7 @@
         <v>1763958000</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3.30625</v>
+        <v>2.209061</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4674,7 @@
         <v>1935956000</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3.885594</v>
+        <v>2.462872</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4688,7 @@
         <v>2115954000</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3.507101</v>
+        <v>2.685343</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,7 +4702,7 @@
         <v>2303952000</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3.636861</v>
+        <v>2.948021</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +4716,7 @@
         <v>2499950000</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3.918892</v>
+        <v>3.232205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4727,10 @@
         <v>2000</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>998842</v>
+        <v>1004605</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.00686</v>
+        <v>0.000594</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,10 +4741,10 @@
         <v>4000</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4020299</v>
+        <v>4023754</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.027643</v>
+        <v>0.002419</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,10 +4755,10 @@
         <v>6000</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>9129557</v>
+        <v>8976581</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.06455</v>
+        <v>0.004534</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,10 +4769,10 @@
         <v>8000</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>15781795</v>
+        <v>15685758</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.118494</v>
+        <v>0.008677</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,10 +4783,10 @@
         <v>10000</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>24799355</v>
+        <v>24940811</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.173845</v>
+        <v>0.012814</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,10 +4797,10 @@
         <v>12000</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>36026883</v>
+        <v>36182129</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2496</v>
+        <v>0.01783</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,10 +4811,10 @@
         <v>14000</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>49006101</v>
+        <v>49337495</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.365063</v>
+        <v>0.022988</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,10 +4825,10 @@
         <v>16000</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>64527730</v>
+        <v>63285891</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.465106</v>
+        <v>0.040348</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,10 +4839,10 @@
         <v>18000</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>80330299</v>
+        <v>81145385</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.559133</v>
+        <v>0.039577</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,10 +4853,10 @@
         <v>20000</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>99654431</v>
+        <v>99930389</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.708501</v>
+        <v>0.052263</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,10 +4867,10 @@
         <v>22000</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>121373359</v>
+        <v>121425919</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.840171</v>
+        <v>0.060819</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,10 +4881,10 @@
         <v>24000</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>143637517</v>
+        <v>143430533</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.999067</v>
+        <v>0.074259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,10 +4895,10 @@
         <v>26000</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>170816093</v>
+        <v>169346187</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.212564</v>
+        <v>0.086801</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,10 +4909,10 @@
         <v>28000</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>196241032</v>
+        <v>195836616</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1.402154</v>
+        <v>0.098321</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,10 +4923,10 @@
         <v>30000</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>225175079</v>
+        <v>226456763</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1.558373</v>
+        <v>0.116471</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,10 +4937,10 @@
         <v>32000</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>256106880</v>
+        <v>255634953</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.784667</v>
+        <v>0.129843</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,10 +4951,10 @@
         <v>34000</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>289159492</v>
+        <v>289687662</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2.025947</v>
+        <v>0.147302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,10 +4965,10 @@
         <v>36000</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>323593273</v>
+        <v>325202567</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2.227914</v>
+        <v>0.16387</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,10 +4979,10 @@
         <v>38000</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>359818969</v>
+        <v>362704497</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2.523436</v>
+        <v>0.194065</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,10 +4993,10 @@
         <v>40000</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>398940990</v>
+        <v>399411025</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2.729954</v>
+        <v>0.201051</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,10 +5007,10 @@
         <v>42000</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>441889075</v>
+        <v>440696860</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3.092265</v>
+        <v>0.221075</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,10 +5021,10 @@
         <v>44000</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>485022054</v>
+        <v>483627725</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3.356209</v>
+        <v>0.240306</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,10 +5035,10 @@
         <v>46000</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>525829150</v>
+        <v>527798125</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3.581432</v>
+        <v>0.278882</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,10 +5049,10 @@
         <v>48000</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>576194309</v>
+        <v>574788348</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>3.991961</v>
+        <v>0.293408</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,10 +5063,10 @@
         <v>50000</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>624783762</v>
+        <v>625115172</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>4.316272</v>
+        <v>0.311366</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +5080,7 @@
         <v>1999000</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.001391</v>
+        <v>0.001271</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5094,7 @@
         <v>7998000</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.004478</v>
+        <v>0.003754</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5106,7 +5108,7 @@
         <v>17997000</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.009589</v>
+        <v>0.008347</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5122,7 @@
         <v>31996000</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.017434</v>
+        <v>0.015049</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5136,7 @@
         <v>49995000</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.026342</v>
+        <v>0.021764</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5150,7 @@
         <v>71994000</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.042598</v>
+        <v>0.030592</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5164,7 @@
         <v>97993000</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.05428</v>
+        <v>0.041405</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5178,7 @@
         <v>127992000</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.065358</v>
+        <v>0.057074</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5192,7 @@
         <v>161991000</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.096255</v>
+        <v>0.073118</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,7 +5206,7 @@
         <v>199990000</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.112022</v>
+        <v>0.119488</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,7 +5220,7 @@
         <v>241989000</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.135179</v>
+        <v>0.109811</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5234,7 @@
         <v>287988000</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.154932</v>
+        <v>0.134155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5248,7 @@
         <v>337987000</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.190433</v>
+        <v>0.154941</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5262,7 @@
         <v>391986000</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.21817</v>
+        <v>0.176038</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5276,7 @@
         <v>449985000</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.248255</v>
+        <v>0.197088</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5290,7 @@
         <v>511984000</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.270725</v>
+        <v>0.239748</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,7 +5304,7 @@
         <v>577983000</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.316633</v>
+        <v>0.260114</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,7 +5318,7 @@
         <v>647982000</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.358366</v>
+        <v>0.295331</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,7 +5332,7 @@
         <v>721981000</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.383524</v>
+        <v>0.322073</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5346,7 @@
         <v>799980000</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.441279</v>
+        <v>0.364885</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,7 +5360,7 @@
         <v>881979000</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.506441</v>
+        <v>0.39315</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5374,7 @@
         <v>967978000</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.530726</v>
+        <v>0.438015</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,7 +5388,7 @@
         <v>1057977000</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.583833</v>
+        <v>0.475896</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5402,7 @@
         <v>1151976000</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.61852</v>
+        <v>0.519218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,7 +5416,7 @@
         <v>1249975000</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.670019</v>
+        <v>0.554263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,10 +5427,10 @@
         <v>2000</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>19405</v>
+        <v>19398</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.000181</v>
+        <v>0.000138</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,10 +5441,10 @@
         <v>4000</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>42880</v>
+        <v>42740</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.000514</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,10 +5455,10 @@
         <v>6000</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>67833</v>
+        <v>67895</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.000813</v>
+        <v>0.000619</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,10 +5469,10 @@
         <v>8000</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>93658</v>
+        <v>93675</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.000959</v>
+        <v>0.000789</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,10 +5483,10 @@
         <v>10000</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120505</v>
+        <v>120435</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.001303</v>
+        <v>0.001065</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,10 +5497,10 @@
         <v>12000</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>147625</v>
+        <v>147734</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.001436</v>
+        <v>0.001277</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,10 +5511,10 @@
         <v>14000</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>175366</v>
+        <v>175365</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.001615</v>
+        <v>0.001408</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,10 +5525,10 @@
         <v>16000</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>203353</v>
+        <v>203259</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.001862</v>
+        <v>0.001777</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,10 +5539,10 @@
         <v>18000</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>231817</v>
+        <v>231969</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.002184</v>
+        <v>0.001783</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,10 +5553,10 @@
         <v>20000</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>261065</v>
+        <v>260866</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.002543</v>
+        <v>0.001907</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,10 +5567,10 @@
         <v>22000</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>290106</v>
+        <v>290152</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.002643</v>
+        <v>0.002044</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,10 +5581,10 @@
         <v>24000</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>319318</v>
+        <v>319381</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0.002826</v>
+        <v>0.002414</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,10 +5595,10 @@
         <v>26000</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>349015</v>
+        <v>349008</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0.002983</v>
+        <v>0.00246</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,10 +5609,10 @@
         <v>28000</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>378878</v>
+        <v>378724</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.00344</v>
+        <v>0.00294</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,10 +5623,10 @@
         <v>30000</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>408648</v>
+        <v>408598</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.003406</v>
+        <v>0.002839</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,10 +5637,10 @@
         <v>32000</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>438545</v>
+        <v>438673</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.003659</v>
+        <v>0.003008</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,10 +5651,10 @@
         <v>34000</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>469035</v>
+        <v>469064</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.004047</v>
+        <v>0.003427</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,10 +5665,10 @@
         <v>36000</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>499800</v>
+        <v>499937</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.004359</v>
+        <v>0.003378</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,10 +5679,10 @@
         <v>38000</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>530782</v>
+        <v>530813</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.005092</v>
+        <v>0.003872</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,10 +5693,10 @@
         <v>40000</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>561589</v>
+        <v>561925</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.004786</v>
+        <v>0.003756</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,10 +5707,10 @@
         <v>42000</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>592796</v>
+        <v>592983</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0.004927</v>
+        <v>0.003759</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,10 +5721,10 @@
         <v>44000</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>624267</v>
+        <v>624047</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.005446</v>
+        <v>0.004829</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,10 +5735,10 @@
         <v>46000</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>655297</v>
+        <v>655338</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.00666</v>
+        <v>0.003957</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,10 +5749,10 @@
         <v>48000</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>686920</v>
+        <v>686583</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.007474</v>
+        <v>0.00482</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,10 +5763,10 @@
         <v>50000</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>717959</v>
+        <v>718327</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.006124</v>
+        <v>0.005832</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,10 +5777,10 @@
         <v>2000</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>10714</v>
+        <v>25356</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.000104</v>
+        <v>8.9E-005</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5791,7 @@
         <v>4000</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>24931</v>
+        <v>52295</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0.00022</v>
@@ -5803,10 +5805,10 @@
         <v>6000</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>41116</v>
+        <v>90425</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.000413</v>
+        <v>0.000353</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,10 +5819,10 @@
         <v>8000</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>57957</v>
+        <v>122720</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0.000555</v>
+        <v>0.000509</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,10 +5833,10 @@
         <v>10000</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>69682</v>
+        <v>149106</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.000692</v>
+        <v>0.000636</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,10 +5847,10 @@
         <v>12000</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>91889</v>
+        <v>188872</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0.000784</v>
+        <v>0.000692</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,10 +5861,10 @@
         <v>14000</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>118424</v>
+        <v>229137</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.000887</v>
+        <v>0.000782</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,10 +5875,10 @@
         <v>16000</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>131071</v>
+        <v>259654</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.000982</v>
+        <v>0.000932</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,10 +5889,10 @@
         <v>18000</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>150488</v>
+        <v>308889</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.001259</v>
+        <v>0.001029</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,10 +5903,10 @@
         <v>20000</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>171481</v>
+        <v>311086</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.001298</v>
+        <v>0.001169</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,10 +5917,10 @@
         <v>22000</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>177214</v>
+        <v>370887</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.001429</v>
+        <v>0.001287</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,10 +5931,10 @@
         <v>24000</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>192412</v>
+        <v>396373</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.001623</v>
+        <v>0.001362</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,10 +5945,10 @@
         <v>26000</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>239340</v>
+        <v>457988</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.001569</v>
+        <v>0.001489</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,10 +5959,10 @@
         <v>28000</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>207392</v>
+        <v>469466</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.001638</v>
+        <v>0.001665</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,10 +5973,10 @@
         <v>30000</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>282531</v>
+        <v>510650</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.001829</v>
+        <v>0.001788</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,10 +5987,10 @@
         <v>32000</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>304445</v>
+        <v>609373</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.001895</v>
+        <v>0.001797</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,10 +6001,10 @@
         <v>34000</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>279465</v>
+        <v>619580</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.00224</v>
+        <v>0.002188</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,10 +6015,10 @@
         <v>36000</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>298308</v>
+        <v>673008</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0.002212</v>
+        <v>0.002525</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,10 +6029,10 @@
         <v>38000</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>358181</v>
+        <v>683072</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.002281</v>
+        <v>0.002125</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,10 +6043,10 @@
         <v>40000</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>350996</v>
+        <v>752453</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>0.002265</v>
+        <v>0.002241</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,10 +6057,10 @@
         <v>42000</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>384050</v>
+        <v>828726</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0.00255</v>
+        <v>0.002074</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,10 +6071,10 @@
         <v>44000</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>389189</v>
+        <v>789337</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.00256</v>
+        <v>0.002474</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,10 +6085,10 @@
         <v>46000</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>398385</v>
+        <v>891115</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.00276</v>
+        <v>0.002391</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,10 +6099,10 @@
         <v>48000</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>435971</v>
+        <v>899371</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0.002961</v>
+        <v>0.002293</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,10 +6113,10 @@
         <v>50000</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>445397</v>
+        <v>930959</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>0.003</v>
+        <v>0.002674</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,10 +6127,10 @@
         <v>2000</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>18078</v>
+        <v>17678</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.000175</v>
+        <v>0.000159</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,10 +6141,10 @@
         <v>4000</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>51658</v>
+        <v>47835</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0.000358</v>
+        <v>0.000331</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,10 +6155,10 @@
         <v>6000</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>67153</v>
+        <v>68438</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0.000627</v>
+        <v>0.000524</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,10 +6169,10 @@
         <v>8000</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>119731</v>
+        <v>112080</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0.000816</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,10 +6183,10 @@
         <v>10000</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>148561</v>
+        <v>154873</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.000966</v>
+        <v>0.000844</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,10 +6197,10 @@
         <v>12000</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>175527</v>
+        <v>187598</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.001274</v>
+        <v>0.001124</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,10 +6211,10 @@
         <v>14000</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>229453</v>
+        <v>224947</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0.001547</v>
+        <v>0.001152</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,10 +6225,10 @@
         <v>16000</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>295072</v>
+        <v>293046</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.001656</v>
+        <v>0.001383</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,10 +6239,10 @@
         <v>18000</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>314755</v>
+        <v>286240</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0.001767</v>
+        <v>0.001423</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,10 +6253,10 @@
         <v>20000</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>389939</v>
+        <v>340707</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0.002115</v>
+        <v>0.001705</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,10 +6267,10 @@
         <v>22000</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>367337</v>
+        <v>372628</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.002161</v>
+        <v>0.001798</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,10 +6281,10 @@
         <v>24000</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>473408</v>
+        <v>463693</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.002783</v>
+        <v>0.002199</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,10 +6295,10 @@
         <v>26000</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>467613</v>
+        <v>501043</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0.002584</v>
+        <v>0.00205</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6307,10 +6309,10 @@
         <v>28000</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>527276</v>
+        <v>515922</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.002765</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,10 +6323,10 @@
         <v>30000</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>624712</v>
+        <v>555796</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.004349</v>
+        <v>0.002683</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,10 +6337,10 @@
         <v>32000</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>747020</v>
+        <v>733325</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.003873</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,10 +6351,10 @@
         <v>34000</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>658561</v>
+        <v>616578</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0.004385</v>
+        <v>0.003008</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,10 +6365,10 @@
         <v>36000</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>723242</v>
+        <v>764186</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0.005156</v>
+        <v>0.003033</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,10 +6379,10 @@
         <v>38000</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>756397</v>
+        <v>755260</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.004283</v>
+        <v>0.003445</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,10 +6393,10 @@
         <v>40000</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>953362</v>
+        <v>881783</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0.004653</v>
+        <v>0.003516</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,10 +6407,10 @@
         <v>42000</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>984232</v>
+        <v>988507</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0.004619</v>
+        <v>0.003795</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,10 +6421,10 @@
         <v>44000</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>883212</v>
+        <v>950544</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0.004679</v>
+        <v>0.003863</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,10 +6435,10 @@
         <v>46000</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>978825</v>
+        <v>930366</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0.005081</v>
+        <v>0.004159</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,10 +6449,10 @@
         <v>48000</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>1112974</v>
+        <v>1145043</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0.005495</v>
+        <v>0.004654</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,10 +6463,10 @@
         <v>50000</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>1223883</v>
+        <v>1197600</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0.005393</v>
+        <v>0.004749</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,10 +6477,10 @@
         <v>2000</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>14160</v>
+        <v>25481</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.000107</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,10 +6491,10 @@
         <v>4000</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>27367</v>
+        <v>52726</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>0.000224</v>
+        <v>0.000205</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,10 +6505,10 @@
         <v>6000</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>53509</v>
+        <v>90747</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0.000395</v>
+        <v>0.000312</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6517,10 +6519,10 @@
         <v>8000</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>77480</v>
+        <v>123197</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0.000558</v>
+        <v>0.000439</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,10 +6533,10 @@
         <v>10000</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>83576</v>
+        <v>149542</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0.000651</v>
+        <v>0.000576</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,10 +6547,10 @@
         <v>12000</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>138198</v>
+        <v>189150</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>0.000794</v>
+        <v>0.000647</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,10 +6561,10 @@
         <v>14000</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>144100</v>
+        <v>230241</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>0.000963</v>
+        <v>0.00069</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,10 +6575,10 @@
         <v>16000</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>139127</v>
+        <v>260418</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0.001027</v>
+        <v>0.000879</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,10 +6589,10 @@
         <v>18000</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>153030</v>
+        <v>309876</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0.001104</v>
+        <v>0.000877</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,10 +6603,10 @@
         <v>20000</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>181213</v>
+        <v>312504</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0.001278</v>
+        <v>0.000998</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,10 +6617,10 @@
         <v>22000</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>209083</v>
+        <v>372062</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0.001417</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,10 +6631,10 @@
         <v>24000</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>192937</v>
+        <v>398087</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0.00168</v>
+        <v>0.001175</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,10 +6645,10 @@
         <v>26000</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>263300</v>
+        <v>459470</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0.001629</v>
+        <v>0.001453</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,10 +6659,10 @@
         <v>28000</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>259991</v>
+        <v>471380</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0.001924</v>
+        <v>0.001571</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,10 +6673,10 @@
         <v>30000</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>273981</v>
+        <v>512434</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0.001734</v>
+        <v>0.001587</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,10 +6687,10 @@
         <v>32000</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>301844</v>
+        <v>610678</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>0.002805</v>
+        <v>0.001592</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,10 +6701,10 @@
         <v>34000</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>371594</v>
+        <v>621998</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0.002369</v>
+        <v>0.001715</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,10 +6715,10 @@
         <v>36000</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>356495</v>
+        <v>675282</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>0.002267</v>
+        <v>0.001704</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,10 +6729,10 @@
         <v>38000</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>418367</v>
+        <v>685828</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>0.003024</v>
+        <v>0.002103</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,10 +6743,10 @@
         <v>40000</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>401089</v>
+        <v>755315</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0.002481</v>
+        <v>0.001959</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,10 +6757,10 @@
         <v>42000</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>438893</v>
+        <v>830814</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0.002978</v>
+        <v>0.002454</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,10 +6771,10 @@
         <v>44000</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>455734</v>
+        <v>792147</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0.002382</v>
+        <v>0.002059</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,10 +6785,10 @@
         <v>46000</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>463384</v>
+        <v>894663</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>0.00374</v>
+        <v>0.002569</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,10 +6799,10 @@
         <v>48000</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>533049</v>
+        <v>902809</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0.002917</v>
+        <v>0.002475</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,10 +6813,10 @@
         <v>50000</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>487082</v>
+        <v>934226</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0.003127</v>
+        <v>0.002557</v>
       </c>
     </row>
   </sheetData>
@@ -6825,6 +6827,29 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/charts.xlsx
+++ b/charts.xlsx
@@ -405,79 +405,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.008554</c:v>
+                  <c:v>0.007694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.025445</c:v>
+                  <c:v>0.029617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.041113</c:v>
+                  <c:v>0.03838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.064305</c:v>
+                  <c:v>0.058369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.078218</c:v>
+                  <c:v>0.106973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11681</c:v>
+                  <c:v>0.163283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.173703</c:v>
+                  <c:v>0.210826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.238803</c:v>
+                  <c:v>0.322517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34212</c:v>
+                  <c:v>0.517014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.440002</c:v>
+                  <c:v>0.605977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.537874</c:v>
+                  <c:v>0.945732</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.665153</c:v>
+                  <c:v>1.088098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.800572</c:v>
+                  <c:v>1.367484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93974</c:v>
+                  <c:v>1.96874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.056022</c:v>
+                  <c:v>1.640834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.246295</c:v>
+                  <c:v>1.708366</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.410302</c:v>
+                  <c:v>1.784243</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.569724</c:v>
+                  <c:v>1.809516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8005</c:v>
+                  <c:v>2.555128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.012398</c:v>
+                  <c:v>3.177633</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.209061</c:v>
+                  <c:v>3.39806</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.462872</c:v>
+                  <c:v>3.49059</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.685343</c:v>
+                  <c:v>3.375997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.948021</c:v>
+                  <c:v>3.909766</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.232205</c:v>
+                  <c:v>4.390899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,79 +638,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000594</c:v>
+                  <c:v>0.000699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002419</c:v>
+                  <c:v>0.002633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004534</c:v>
+                  <c:v>0.005213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.008677</c:v>
+                  <c:v>0.009402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.012814</c:v>
+                  <c:v>0.013946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01783</c:v>
+                  <c:v>0.02697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.022988</c:v>
+                  <c:v>0.034465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.040348</c:v>
+                  <c:v>0.036469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.039577</c:v>
+                  <c:v>0.044174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.052263</c:v>
+                  <c:v>0.05586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.060819</c:v>
+                  <c:v>0.065798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.074259</c:v>
+                  <c:v>0.085089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.086801</c:v>
+                  <c:v>0.092937</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.098321</c:v>
+                  <c:v>0.110409</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.116471</c:v>
+                  <c:v>0.12723</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.129843</c:v>
+                  <c:v>0.144424</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.147302</c:v>
+                  <c:v>0.191212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16387</c:v>
+                  <c:v>0.176722</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.194065</c:v>
+                  <c:v>0.207644</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.201051</c:v>
+                  <c:v>0.223275</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.221075</c:v>
+                  <c:v>0.24842</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.240306</c:v>
+                  <c:v>0.268703</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.278882</c:v>
+                  <c:v>0.28771</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.293408</c:v>
+                  <c:v>0.320939</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.311366</c:v>
+                  <c:v>0.339633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,90 +871,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.001271</c:v>
+                  <c:v>0.001221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003754</c:v>
+                  <c:v>0.004467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008347</c:v>
+                  <c:v>0.009167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.015049</c:v>
+                  <c:v>0.015436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.021764</c:v>
+                  <c:v>0.024324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.030592</c:v>
+                  <c:v>0.035466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.041405</c:v>
+                  <c:v>0.048438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.057074</c:v>
+                  <c:v>0.064649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.073118</c:v>
+                  <c:v>0.078728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.119488</c:v>
+                  <c:v>0.098687</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.109811</c:v>
+                  <c:v>0.119569</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.134155</c:v>
+                  <c:v>0.136384</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.154941</c:v>
+                  <c:v>0.163604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.176038</c:v>
+                  <c:v>0.194195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.197088</c:v>
+                  <c:v>0.221069</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.239748</c:v>
+                  <c:v>0.248663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.260114</c:v>
+                  <c:v>0.293405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.295331</c:v>
+                  <c:v>0.32801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.322073</c:v>
+                  <c:v>0.365954</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.364885</c:v>
+                  <c:v>0.390596</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.39315</c:v>
+                  <c:v>0.424837</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.438015</c:v>
+                  <c:v>0.475055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.475896</c:v>
+                  <c:v>0.507202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.519218</c:v>
+                  <c:v>0.556428</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.554263</c:v>
+                  <c:v>0.598136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96133143"/>
-        <c:axId val="75617937"/>
+        <c:axId val="26833620"/>
+        <c:axId val="2229098"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96133143"/>
+        <c:axId val="26833620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +996,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75617937"/>
+        <c:crossAx val="2229098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75617937"/>
+        <c:axId val="2229098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1043,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96133143"/>
+        <c:crossAx val="26833620"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1293,79 +1293,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000138</c:v>
+                  <c:v>0.000175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00028</c:v>
+                  <c:v>0.000436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000619</c:v>
+                  <c:v>0.000746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000789</c:v>
+                  <c:v>0.000905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.001065</c:v>
+                  <c:v>0.001088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001277</c:v>
+                  <c:v>0.001225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.001408</c:v>
+                  <c:v>0.001527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001777</c:v>
+                  <c:v>0.001627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001783</c:v>
+                  <c:v>0.001907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001907</c:v>
+                  <c:v>0.002236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002044</c:v>
+                  <c:v>0.002513</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002414</c:v>
+                  <c:v>0.002482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00246</c:v>
+                  <c:v>0.002556</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00294</c:v>
+                  <c:v>0.003104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.002839</c:v>
+                  <c:v>0.003281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.003008</c:v>
+                  <c:v>0.003517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003427</c:v>
+                  <c:v>0.003647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003378</c:v>
+                  <c:v>0.003606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.003872</c:v>
+                  <c:v>0.003806</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.003756</c:v>
+                  <c:v>0.00465</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.003759</c:v>
+                  <c:v>0.004231</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.004829</c:v>
+                  <c:v>0.004868</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.003957</c:v>
+                  <c:v>0.006427</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00482</c:v>
+                  <c:v>0.006131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.005832</c:v>
+                  <c:v>0.006151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,79 +1526,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.9E-005</c:v>
+                  <c:v>8.4E-005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00022</c:v>
+                  <c:v>0.000176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000353</c:v>
+                  <c:v>0.000326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000509</c:v>
+                  <c:v>0.000416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000636</c:v>
+                  <c:v>0.00051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000692</c:v>
+                  <c:v>0.000771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000782</c:v>
+                  <c:v>0.000807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000932</c:v>
+                  <c:v>0.000847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001029</c:v>
+                  <c:v>0.001024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001169</c:v>
+                  <c:v>0.001056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.001287</c:v>
+                  <c:v>0.001162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.001362</c:v>
+                  <c:v>0.001321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001489</c:v>
+                  <c:v>0.001386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001665</c:v>
+                  <c:v>0.001844</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001788</c:v>
+                  <c:v>0.001641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001797</c:v>
+                  <c:v>0.001856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.002188</c:v>
+                  <c:v>0.002047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.002525</c:v>
+                  <c:v>0.001877</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.002125</c:v>
+                  <c:v>0.002097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.002241</c:v>
+                  <c:v>0.002401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.002074</c:v>
+                  <c:v>0.002557</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.002474</c:v>
+                  <c:v>0.002325</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.002391</c:v>
+                  <c:v>0.002411</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.002293</c:v>
+                  <c:v>0.00255</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.002674</c:v>
+                  <c:v>0.003817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,79 +1759,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000159</c:v>
+                  <c:v>0.000167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000331</c:v>
+                  <c:v>0.000372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000524</c:v>
+                  <c:v>0.000638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000726</c:v>
+                  <c:v>0.000756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000844</c:v>
+                  <c:v>0.000884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001124</c:v>
+                  <c:v>0.001154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.001152</c:v>
+                  <c:v>0.001283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001383</c:v>
+                  <c:v>0.001476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001423</c:v>
+                  <c:v>0.001599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001705</c:v>
+                  <c:v>0.001708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.001798</c:v>
+                  <c:v>0.002124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002199</c:v>
+                  <c:v>0.002462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00205</c:v>
+                  <c:v>0.002353</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.002494</c:v>
+                  <c:v>0.002566</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.002683</c:v>
+                  <c:v>0.002657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00265</c:v>
+                  <c:v>0.003243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003008</c:v>
+                  <c:v>0.003242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003033</c:v>
+                  <c:v>0.003225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.003445</c:v>
+                  <c:v>0.003869</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.003516</c:v>
+                  <c:v>0.003956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.003795</c:v>
+                  <c:v>0.004196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.003863</c:v>
+                  <c:v>0.003987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.004159</c:v>
+                  <c:v>0.004303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.004654</c:v>
+                  <c:v>0.005277</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.004749</c:v>
+                  <c:v>0.004741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,90 +1992,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.000107</c:v>
+                  <c:v>8.9E-005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000205</c:v>
+                  <c:v>0.000158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000312</c:v>
+                  <c:v>0.000308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000439</c:v>
+                  <c:v>0.000417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000576</c:v>
+                  <c:v>0.000548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000647</c:v>
+                  <c:v>0.000683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00069</c:v>
+                  <c:v>0.000782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000879</c:v>
+                  <c:v>0.000807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000877</c:v>
+                  <c:v>0.001019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000998</c:v>
+                  <c:v>0.001122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.001145</c:v>
+                  <c:v>0.001123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.001175</c:v>
+                  <c:v>0.001317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001453</c:v>
+                  <c:v>0.00137</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001571</c:v>
+                  <c:v>0.001397</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001587</c:v>
+                  <c:v>0.00158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001592</c:v>
+                  <c:v>0.001701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001715</c:v>
+                  <c:v>0.00197</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.001704</c:v>
+                  <c:v>0.002046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.002103</c:v>
+                  <c:v>0.002079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001959</c:v>
+                  <c:v>0.001968</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.002454</c:v>
+                  <c:v>0.002232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.002059</c:v>
+                  <c:v>0.002617</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.002569</c:v>
+                  <c:v>0.002745</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.002475</c:v>
+                  <c:v>0.002556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.002557</c:v>
+                  <c:v>0.003007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="26762883"/>
-        <c:axId val="43577603"/>
+        <c:axId val="6830276"/>
+        <c:axId val="476605"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26762883"/>
+        <c:axId val="6830276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2117,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43577603"/>
+        <c:crossAx val="476605"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43577603"/>
+        <c:axId val="476605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2164,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26762883"/>
+        <c:crossAx val="6830276"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2647,79 +2647,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1004605</c:v>
+                  <c:v>1009515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4023754</c:v>
+                  <c:v>4047189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8976581</c:v>
+                  <c:v>8888436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15685758</c:v>
+                  <c:v>15933474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24940811</c:v>
+                  <c:v>25199678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36182129</c:v>
+                  <c:v>35978561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49337495</c:v>
+                  <c:v>49388612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63285891</c:v>
+                  <c:v>64224470</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81145385</c:v>
+                  <c:v>80898583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99930389</c:v>
+                  <c:v>100094780</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121425919</c:v>
+                  <c:v>120540124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143430533</c:v>
+                  <c:v>144360192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169346187</c:v>
+                  <c:v>167688806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195836616</c:v>
+                  <c:v>196423551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>226456763</c:v>
+                  <c:v>225095360</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>255634953</c:v>
+                  <c:v>255787088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>289687662</c:v>
+                  <c:v>289708559</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>325202567</c:v>
+                  <c:v>323057107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>362704497</c:v>
+                  <c:v>360736689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>399411025</c:v>
+                  <c:v>398396052</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>440696860</c:v>
+                  <c:v>442573547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>483627725</c:v>
+                  <c:v>486668828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>527798125</c:v>
+                  <c:v>528643987</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>574788348</c:v>
+                  <c:v>575752290</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>625115172</c:v>
+                  <c:v>622739079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,11 +2959,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="30482917"/>
-        <c:axId val="76259742"/>
+        <c:axId val="83828158"/>
+        <c:axId val="47683891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30482917"/>
+        <c:axId val="83828158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,12 +3005,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76259742"/>
+        <c:crossAx val="47683891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76259742"/>
+        <c:axId val="47683891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30482917"/>
+        <c:crossAx val="83828158"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,79 +3302,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>19398</c:v>
+                  <c:v>19416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42740</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67895</c:v>
+                  <c:v>67784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93675</c:v>
+                  <c:v>93619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120435</c:v>
+                  <c:v>120412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147734</c:v>
+                  <c:v>147637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175365</c:v>
+                  <c:v>175355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203259</c:v>
+                  <c:v>203251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231969</c:v>
+                  <c:v>231925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260866</c:v>
+                  <c:v>260879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>290152</c:v>
+                  <c:v>289909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>319381</c:v>
+                  <c:v>319311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>349008</c:v>
+                  <c:v>348788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>378724</c:v>
+                  <c:v>378840</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>408598</c:v>
+                  <c:v>408607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>438673</c:v>
+                  <c:v>438525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>469064</c:v>
+                  <c:v>469055</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>499937</c:v>
+                  <c:v>499784</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530813</c:v>
+                  <c:v>530895</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>561925</c:v>
+                  <c:v>561723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>592983</c:v>
+                  <c:v>592919</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>624047</c:v>
+                  <c:v>624139</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>655338</c:v>
+                  <c:v>655262</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>686583</c:v>
+                  <c:v>686687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>718327</c:v>
+                  <c:v>718374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,79 +3535,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>25356</c:v>
+                  <c:v>23592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52295</c:v>
+                  <c:v>53693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90425</c:v>
+                  <c:v>84637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122720</c:v>
+                  <c:v>120424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149106</c:v>
+                  <c:v>151994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188872</c:v>
+                  <c:v>189484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229137</c:v>
+                  <c:v>220919</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>259654</c:v>
+                  <c:v>271124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>308889</c:v>
+                  <c:v>316545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>311086</c:v>
+                  <c:v>361664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370887</c:v>
+                  <c:v>391489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396373</c:v>
+                  <c:v>400329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>457988</c:v>
+                  <c:v>436480</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>469466</c:v>
+                  <c:v>481354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>510650</c:v>
+                  <c:v>528172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>609373</c:v>
+                  <c:v>564249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>619580</c:v>
+                  <c:v>603644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673008</c:v>
+                  <c:v>653121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>683072</c:v>
+                  <c:v>674755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>752453</c:v>
+                  <c:v>783189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>828726</c:v>
+                  <c:v>803505</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>789337</c:v>
+                  <c:v>782402</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>891115</c:v>
+                  <c:v>889094</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>899371</c:v>
+                  <c:v>973850</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>930959</c:v>
+                  <c:v>905663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3768,79 +3768,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>17678</c:v>
+                  <c:v>18537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47835</c:v>
+                  <c:v>43281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68438</c:v>
+                  <c:v>77133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112080</c:v>
+                  <c:v>120002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154873</c:v>
+                  <c:v>151703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187598</c:v>
+                  <c:v>170184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>224947</c:v>
+                  <c:v>207304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293046</c:v>
+                  <c:v>308784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>286240</c:v>
+                  <c:v>303276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>340707</c:v>
+                  <c:v>361752</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>372628</c:v>
+                  <c:v>362997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>463693</c:v>
+                  <c:v>461120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>501043</c:v>
+                  <c:v>473083</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>515922</c:v>
+                  <c:v>522488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>555796</c:v>
+                  <c:v>544642</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>733325</c:v>
+                  <c:v>754745</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>616578</c:v>
+                  <c:v>682209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>764186</c:v>
+                  <c:v>710269</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>755260</c:v>
+                  <c:v>763381</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>881783</c:v>
+                  <c:v>926445</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>988507</c:v>
+                  <c:v>1008401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>950544</c:v>
+                  <c:v>900527</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>930366</c:v>
+                  <c:v>961312</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1145043</c:v>
+                  <c:v>1171803</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1197600</c:v>
+                  <c:v>1175968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,90 +4001,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>25481</c:v>
+                  <c:v>25295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52726</c:v>
+                  <c:v>56663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90747</c:v>
+                  <c:v>89356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123197</c:v>
+                  <c:v>126804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149542</c:v>
+                  <c:v>159606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189150</c:v>
+                  <c:v>199101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230241</c:v>
+                  <c:v>231918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>260418</c:v>
+                  <c:v>283504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>309876</c:v>
+                  <c:v>330465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>312504</c:v>
+                  <c:v>377230</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>372062</c:v>
+                  <c:v>409420</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>398087</c:v>
+                  <c:v>419832</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>459470</c:v>
+                  <c:v>456588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>471380</c:v>
+                  <c:v>503589</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>512434</c:v>
+                  <c:v>550532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>610678</c:v>
+                  <c:v>589119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>621998</c:v>
+                  <c:v>630978</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>675282</c:v>
+                  <c:v>680549</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>685828</c:v>
+                  <c:v>703845</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>755315</c:v>
+                  <c:v>814228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>830814</c:v>
+                  <c:v>837623</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>792147</c:v>
+                  <c:v>816620</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>894663</c:v>
+                  <c:v>925520</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>902809</c:v>
+                  <c:v>1010832</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>934226</c:v>
+                  <c:v>944760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4599879"/>
-        <c:axId val="9020484"/>
+        <c:axId val="46230388"/>
+        <c:axId val="25602848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4599879"/>
+        <c:axId val="46230388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,12 +4126,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9020484"/>
+        <c:crossAx val="25602848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9020484"/>
+        <c:axId val="25602848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,7 +4173,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4599879"/>
+        <c:crossAx val="46230388"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4236,9 +4236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4247,7 +4247,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="360"/>
-        <a:ext cx="8137800" cy="4130280"/>
+        <a:ext cx="8143920" cy="4129920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4266,9 +4266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>172800</xdr:colOff>
+      <xdr:colOff>172440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4276,8 +4276,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8272800" y="38160"/>
-        <a:ext cx="8168760" cy="4025520"/>
+        <a:off x="8279280" y="38160"/>
+        <a:ext cx="8174520" cy="4025160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4296,9 +4296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>22320</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4307,7 +4307,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4264560"/>
-        <a:ext cx="8156880" cy="4044600"/>
+        <a:ext cx="8163000" cy="4044240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4326,9 +4326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4336,8 +4336,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8272800" y="4284000"/>
-        <a:ext cx="8144280" cy="4805280"/>
+        <a:off x="8279280" y="4284000"/>
+        <a:ext cx="8150040" cy="4804920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4358,7 +4358,7 @@
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4380,7 +4380,7 @@
         <v>3998000</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0.008554</v>
+        <v>0.007694</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +4394,7 @@
         <v>15996000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.025445</v>
+        <v>0.029617</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4408,7 @@
         <v>35994000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.041113</v>
+        <v>0.03838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4422,7 @@
         <v>63992000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.064305</v>
+        <v>0.058369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4436,7 @@
         <v>99990000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.078218</v>
+        <v>0.106973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,7 +4450,7 @@
         <v>143988000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.11681</v>
+        <v>0.163283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4464,7 @@
         <v>195986000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.173703</v>
+        <v>0.210826</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4478,7 @@
         <v>255984000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.238803</v>
+        <v>0.322517</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4492,7 @@
         <v>323982000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.34212</v>
+        <v>0.517014</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,7 +4506,7 @@
         <v>399980000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.440002</v>
+        <v>0.605977</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4520,7 @@
         <v>483978000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.537874</v>
+        <v>0.945732</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4534,7 @@
         <v>575976000</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.665153</v>
+        <v>1.088098</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4548,7 @@
         <v>675974000</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.800572</v>
+        <v>1.367484</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4562,7 @@
         <v>783972000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.93974</v>
+        <v>1.96874</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,7 +4576,7 @@
         <v>899970000</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.056022</v>
+        <v>1.640834</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4590,7 @@
         <v>1023968000</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.246295</v>
+        <v>1.708366</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,7 +4604,7 @@
         <v>1155966000</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.410302</v>
+        <v>1.784243</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,7 +4618,7 @@
         <v>1295964000</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.569724</v>
+        <v>1.809516</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4632,7 @@
         <v>1443962000</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.8005</v>
+        <v>2.555128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4646,7 @@
         <v>1599960000</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2.012398</v>
+        <v>3.177633</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4660,7 @@
         <v>1763958000</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2.209061</v>
+        <v>3.39806</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,7 +4674,7 @@
         <v>1935956000</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2.462872</v>
+        <v>3.49059</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4688,7 @@
         <v>2115954000</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2.685343</v>
+        <v>3.375997</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4702,7 @@
         <v>2303952000</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2.948021</v>
+        <v>3.909766</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4716,7 @@
         <v>2499950000</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3.232205</v>
+        <v>4.390899</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,10 +4727,10 @@
         <v>2000</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1004605</v>
+        <v>1009515</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.000594</v>
+        <v>0.000699</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,10 +4741,10 @@
         <v>4000</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4023754</v>
+        <v>4047189</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.002419</v>
+        <v>0.002633</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,10 +4755,10 @@
         <v>6000</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>8976581</v>
+        <v>8888436</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.004534</v>
+        <v>0.005213</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,10 +4769,10 @@
         <v>8000</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>15685758</v>
+        <v>15933474</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.008677</v>
+        <v>0.009402</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,10 +4783,10 @@
         <v>10000</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>24940811</v>
+        <v>25199678</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.012814</v>
+        <v>0.013946</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,10 +4797,10 @@
         <v>12000</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>36182129</v>
+        <v>35978561</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.01783</v>
+        <v>0.02697</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,10 +4811,10 @@
         <v>14000</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>49337495</v>
+        <v>49388612</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.022988</v>
+        <v>0.034465</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +4825,10 @@
         <v>16000</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>63285891</v>
+        <v>64224470</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.040348</v>
+        <v>0.036469</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,10 +4839,10 @@
         <v>18000</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>81145385</v>
+        <v>80898583</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.039577</v>
+        <v>0.044174</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,10 +4853,10 @@
         <v>20000</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>99930389</v>
+        <v>100094780</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.052263</v>
+        <v>0.05586</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,10 +4867,10 @@
         <v>22000</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>121425919</v>
+        <v>120540124</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.060819</v>
+        <v>0.065798</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,10 +4881,10 @@
         <v>24000</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>143430533</v>
+        <v>144360192</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.074259</v>
+        <v>0.085089</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,10 +4895,10 @@
         <v>26000</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>169346187</v>
+        <v>167688806</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.086801</v>
+        <v>0.092937</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,10 +4909,10 @@
         <v>28000</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>195836616</v>
+        <v>196423551</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.098321</v>
+        <v>0.110409</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,10 +4923,10 @@
         <v>30000</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>226456763</v>
+        <v>225095360</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.116471</v>
+        <v>0.12723</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,10 +4937,10 @@
         <v>32000</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>255634953</v>
+        <v>255787088</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.129843</v>
+        <v>0.144424</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,10 +4951,10 @@
         <v>34000</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>289687662</v>
+        <v>289708559</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.147302</v>
+        <v>0.191212</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,10 +4965,10 @@
         <v>36000</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>325202567</v>
+        <v>323057107</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.16387</v>
+        <v>0.176722</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +4979,10 @@
         <v>38000</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>362704497</v>
+        <v>360736689</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.194065</v>
+        <v>0.207644</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,10 +4993,10 @@
         <v>40000</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>399411025</v>
+        <v>398396052</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.201051</v>
+        <v>0.223275</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +5007,10 @@
         <v>42000</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>440696860</v>
+        <v>442573547</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.221075</v>
+        <v>0.24842</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +5021,10 @@
         <v>44000</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>483627725</v>
+        <v>486668828</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.240306</v>
+        <v>0.268703</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,10 +5035,10 @@
         <v>46000</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>527798125</v>
+        <v>528643987</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.278882</v>
+        <v>0.28771</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,10 +5049,10 @@
         <v>48000</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>574788348</v>
+        <v>575752290</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.293408</v>
+        <v>0.320939</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,10 +5063,10 @@
         <v>50000</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>625115172</v>
+        <v>622739079</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.311366</v>
+        <v>0.339633</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5080,7 @@
         <v>1999000</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.001271</v>
+        <v>0.001221</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +5094,7 @@
         <v>7998000</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.003754</v>
+        <v>0.004467</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,7 +5108,7 @@
         <v>17997000</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.008347</v>
+        <v>0.009167</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,7 +5122,7 @@
         <v>31996000</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.015049</v>
+        <v>0.015436</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5136,7 @@
         <v>49995000</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.021764</v>
+        <v>0.024324</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5150,7 @@
         <v>71994000</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.030592</v>
+        <v>0.035466</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,7 +5164,7 @@
         <v>97993000</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.041405</v>
+        <v>0.048438</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5178,7 @@
         <v>127992000</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.057074</v>
+        <v>0.064649</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5192,7 @@
         <v>161991000</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.073118</v>
+        <v>0.078728</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +5206,7 @@
         <v>199990000</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.119488</v>
+        <v>0.098687</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5220,7 @@
         <v>241989000</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.109811</v>
+        <v>0.119569</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,7 +5234,7 @@
         <v>287988000</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.134155</v>
+        <v>0.136384</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5248,7 @@
         <v>337987000</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.154941</v>
+        <v>0.163604</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5262,7 @@
         <v>391986000</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.176038</v>
+        <v>0.194195</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,7 +5276,7 @@
         <v>449985000</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.197088</v>
+        <v>0.221069</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5290,7 @@
         <v>511984000</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.239748</v>
+        <v>0.248663</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5304,7 @@
         <v>577983000</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.260114</v>
+        <v>0.293405</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +5318,7 @@
         <v>647982000</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.295331</v>
+        <v>0.32801</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,7 +5332,7 @@
         <v>721981000</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.322073</v>
+        <v>0.365954</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,7 +5346,7 @@
         <v>799980000</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.364885</v>
+        <v>0.390596</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5360,7 @@
         <v>881979000</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.39315</v>
+        <v>0.424837</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +5374,7 @@
         <v>967978000</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.438015</v>
+        <v>0.475055</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,7 +5388,7 @@
         <v>1057977000</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.475896</v>
+        <v>0.507202</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,7 +5402,7 @@
         <v>1151976000</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.519218</v>
+        <v>0.556428</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5416,7 @@
         <v>1249975000</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.554263</v>
+        <v>0.598136</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,10 +5427,10 @@
         <v>2000</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>19398</v>
+        <v>19416</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.000138</v>
+        <v>0.000175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,10 +5441,10 @@
         <v>4000</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>42740</v>
+        <v>42859</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.00028</v>
+        <v>0.000436</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,10 +5455,10 @@
         <v>6000</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>67895</v>
+        <v>67784</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.000619</v>
+        <v>0.000746</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,10 +5469,10 @@
         <v>8000</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>93675</v>
+        <v>93619</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.000789</v>
+        <v>0.000905</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,10 +5483,10 @@
         <v>10000</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120435</v>
+        <v>120412</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.001065</v>
+        <v>0.001088</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,10 +5497,10 @@
         <v>12000</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>147734</v>
+        <v>147637</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.001277</v>
+        <v>0.001225</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,10 +5511,10 @@
         <v>14000</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>175365</v>
+        <v>175355</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.001408</v>
+        <v>0.001527</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,10 +5525,10 @@
         <v>16000</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>203259</v>
+        <v>203251</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.001777</v>
+        <v>0.001627</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,10 +5539,10 @@
         <v>18000</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>231969</v>
+        <v>231925</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.001783</v>
+        <v>0.001907</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,10 +5553,10 @@
         <v>20000</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>260866</v>
+        <v>260879</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.001907</v>
+        <v>0.002236</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,10 +5567,10 @@
         <v>22000</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>290152</v>
+        <v>289909</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.002044</v>
+        <v>0.002513</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,10 +5581,10 @@
         <v>24000</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>319381</v>
+        <v>319311</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0.002414</v>
+        <v>0.002482</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,10 +5595,10 @@
         <v>26000</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>349008</v>
+        <v>348788</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0.00246</v>
+        <v>0.002556</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,10 +5609,10 @@
         <v>28000</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>378724</v>
+        <v>378840</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.00294</v>
+        <v>0.003104</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,10 +5623,10 @@
         <v>30000</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>408598</v>
+        <v>408607</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.002839</v>
+        <v>0.003281</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,10 +5637,10 @@
         <v>32000</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>438673</v>
+        <v>438525</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.003008</v>
+        <v>0.003517</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,10 +5651,10 @@
         <v>34000</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>469064</v>
+        <v>469055</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.003427</v>
+        <v>0.003647</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,10 +5665,10 @@
         <v>36000</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>499937</v>
+        <v>499784</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.003378</v>
+        <v>0.003606</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,10 +5679,10 @@
         <v>38000</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>530813</v>
+        <v>530895</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.003872</v>
+        <v>0.003806</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,10 +5693,10 @@
         <v>40000</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>561925</v>
+        <v>561723</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.003756</v>
+        <v>0.00465</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,10 +5707,10 @@
         <v>42000</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>592983</v>
+        <v>592919</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0.003759</v>
+        <v>0.004231</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,10 +5721,10 @@
         <v>44000</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>624047</v>
+        <v>624139</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.004829</v>
+        <v>0.004868</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,10 +5735,10 @@
         <v>46000</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>655338</v>
+        <v>655262</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.003957</v>
+        <v>0.006427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,10 +5749,10 @@
         <v>48000</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>686583</v>
+        <v>686687</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.00482</v>
+        <v>0.006131</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,10 +5763,10 @@
         <v>50000</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>718327</v>
+        <v>718374</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.005832</v>
+        <v>0.006151</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,10 +5777,10 @@
         <v>2000</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>25356</v>
+        <v>23592</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>8.9E-005</v>
+        <v>8.4E-005</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,10 +5791,10 @@
         <v>4000</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>52295</v>
+        <v>53693</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0.00022</v>
+        <v>0.000176</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,10 +5805,10 @@
         <v>6000</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>90425</v>
+        <v>84637</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.000353</v>
+        <v>0.000326</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,10 +5819,10 @@
         <v>8000</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>122720</v>
+        <v>120424</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0.000509</v>
+        <v>0.000416</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,10 +5833,10 @@
         <v>10000</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>149106</v>
+        <v>151994</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.000636</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,10 +5847,10 @@
         <v>12000</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>188872</v>
+        <v>189484</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0.000692</v>
+        <v>0.000771</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,10 +5861,10 @@
         <v>14000</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>229137</v>
+        <v>220919</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.000782</v>
+        <v>0.000807</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,10 +5875,10 @@
         <v>16000</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>259654</v>
+        <v>271124</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.000932</v>
+        <v>0.000847</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,10 +5889,10 @@
         <v>18000</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>308889</v>
+        <v>316545</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.001029</v>
+        <v>0.001024</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,10 +5903,10 @@
         <v>20000</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>311086</v>
+        <v>361664</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.001169</v>
+        <v>0.001056</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,10 +5917,10 @@
         <v>22000</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>370887</v>
+        <v>391489</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.001287</v>
+        <v>0.001162</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,10 +5931,10 @@
         <v>24000</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>396373</v>
+        <v>400329</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.001362</v>
+        <v>0.001321</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,10 +5945,10 @@
         <v>26000</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>457988</v>
+        <v>436480</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.001489</v>
+        <v>0.001386</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,10 +5959,10 @@
         <v>28000</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>469466</v>
+        <v>481354</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.001665</v>
+        <v>0.001844</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,10 +5973,10 @@
         <v>30000</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>510650</v>
+        <v>528172</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.001788</v>
+        <v>0.001641</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,10 +5987,10 @@
         <v>32000</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>609373</v>
+        <v>564249</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.001797</v>
+        <v>0.001856</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,10 +6001,10 @@
         <v>34000</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>619580</v>
+        <v>603644</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.002188</v>
+        <v>0.002047</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,10 +6015,10 @@
         <v>36000</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>673008</v>
+        <v>653121</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0.002525</v>
+        <v>0.001877</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,10 +6029,10 @@
         <v>38000</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>683072</v>
+        <v>674755</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.002125</v>
+        <v>0.002097</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,10 +6043,10 @@
         <v>40000</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>752453</v>
+        <v>783189</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>0.002241</v>
+        <v>0.002401</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,10 +6057,10 @@
         <v>42000</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>828726</v>
+        <v>803505</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0.002074</v>
+        <v>0.002557</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,10 +6071,10 @@
         <v>44000</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>789337</v>
+        <v>782402</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.002474</v>
+        <v>0.002325</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,10 +6085,10 @@
         <v>46000</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>891115</v>
+        <v>889094</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.002391</v>
+        <v>0.002411</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,10 +6099,10 @@
         <v>48000</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>899371</v>
+        <v>973850</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0.002293</v>
+        <v>0.00255</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,10 +6113,10 @@
         <v>50000</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>930959</v>
+        <v>905663</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>0.002674</v>
+        <v>0.003817</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,10 +6127,10 @@
         <v>2000</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>17678</v>
+        <v>18537</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.000159</v>
+        <v>0.000167</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,10 +6141,10 @@
         <v>4000</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>47835</v>
+        <v>43281</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0.000331</v>
+        <v>0.000372</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,10 +6155,10 @@
         <v>6000</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>68438</v>
+        <v>77133</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0.000524</v>
+        <v>0.000638</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,10 +6169,10 @@
         <v>8000</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>112080</v>
+        <v>120002</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0.000726</v>
+        <v>0.000756</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,10 +6183,10 @@
         <v>10000</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>154873</v>
+        <v>151703</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.000844</v>
+        <v>0.000884</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,10 +6197,10 @@
         <v>12000</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>187598</v>
+        <v>170184</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.001124</v>
+        <v>0.001154</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,10 +6211,10 @@
         <v>14000</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>224947</v>
+        <v>207304</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0.001152</v>
+        <v>0.001283</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,10 +6225,10 @@
         <v>16000</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>293046</v>
+        <v>308784</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.001383</v>
+        <v>0.001476</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,10 +6239,10 @@
         <v>18000</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>286240</v>
+        <v>303276</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0.001423</v>
+        <v>0.001599</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,10 +6253,10 @@
         <v>20000</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>340707</v>
+        <v>361752</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0.001705</v>
+        <v>0.001708</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,10 +6267,10 @@
         <v>22000</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>372628</v>
+        <v>362997</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.001798</v>
+        <v>0.002124</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,10 +6281,10 @@
         <v>24000</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>463693</v>
+        <v>461120</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.002199</v>
+        <v>0.002462</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,10 +6295,10 @@
         <v>26000</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>501043</v>
+        <v>473083</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0.00205</v>
+        <v>0.002353</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,10 +6309,10 @@
         <v>28000</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>515922</v>
+        <v>522488</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.002494</v>
+        <v>0.002566</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,10 +6323,10 @@
         <v>30000</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>555796</v>
+        <v>544642</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.002683</v>
+        <v>0.002657</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,10 +6337,10 @@
         <v>32000</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>733325</v>
+        <v>754745</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.00265</v>
+        <v>0.003243</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,10 +6351,10 @@
         <v>34000</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>616578</v>
+        <v>682209</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0.003008</v>
+        <v>0.003242</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6365,10 @@
         <v>36000</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>764186</v>
+        <v>710269</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0.003033</v>
+        <v>0.003225</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,10 +6379,10 @@
         <v>38000</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>755260</v>
+        <v>763381</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.003445</v>
+        <v>0.003869</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,10 +6393,10 @@
         <v>40000</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>881783</v>
+        <v>926445</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0.003516</v>
+        <v>0.003956</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,10 +6407,10 @@
         <v>42000</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>988507</v>
+        <v>1008401</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0.003795</v>
+        <v>0.004196</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,10 +6421,10 @@
         <v>44000</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>950544</v>
+        <v>900527</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0.003863</v>
+        <v>0.003987</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6435,10 +6435,10 @@
         <v>46000</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>930366</v>
+        <v>961312</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0.004159</v>
+        <v>0.004303</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,10 +6449,10 @@
         <v>48000</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>1145043</v>
+        <v>1171803</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0.004654</v>
+        <v>0.005277</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,10 +6463,10 @@
         <v>50000</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>1197600</v>
+        <v>1175968</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0.004749</v>
+        <v>0.004741</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,10 +6477,10 @@
         <v>2000</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>25481</v>
+        <v>25295</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0.000107</v>
+        <v>8.9E-005</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,10 +6491,10 @@
         <v>4000</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>52726</v>
+        <v>56663</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>0.000205</v>
+        <v>0.000158</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,10 +6505,10 @@
         <v>6000</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>90747</v>
+        <v>89356</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0.000312</v>
+        <v>0.000308</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,10 +6519,10 @@
         <v>8000</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>123197</v>
+        <v>126804</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0.000439</v>
+        <v>0.000417</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,10 +6533,10 @@
         <v>10000</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>149542</v>
+        <v>159606</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0.000576</v>
+        <v>0.000548</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,10 +6547,10 @@
         <v>12000</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>189150</v>
+        <v>199101</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>0.000647</v>
+        <v>0.000683</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,10 +6561,10 @@
         <v>14000</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>230241</v>
+        <v>231918</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>0.00069</v>
+        <v>0.000782</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,10 +6575,10 @@
         <v>16000</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>260418</v>
+        <v>283504</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0.000879</v>
+        <v>0.000807</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,10 +6589,10 @@
         <v>18000</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>309876</v>
+        <v>330465</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0.000877</v>
+        <v>0.001019</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,10 +6603,10 @@
         <v>20000</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>312504</v>
+        <v>377230</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0.000998</v>
+        <v>0.001122</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,10 +6617,10 @@
         <v>22000</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>372062</v>
+        <v>409420</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0.001145</v>
+        <v>0.001123</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,10 +6631,10 @@
         <v>24000</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>398087</v>
+        <v>419832</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0.001175</v>
+        <v>0.001317</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,10 +6645,10 @@
         <v>26000</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>459470</v>
+        <v>456588</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0.001453</v>
+        <v>0.00137</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6659,10 +6659,10 @@
         <v>28000</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>471380</v>
+        <v>503589</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0.001571</v>
+        <v>0.001397</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,10 +6673,10 @@
         <v>30000</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>512434</v>
+        <v>550532</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0.001587</v>
+        <v>0.00158</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,10 +6687,10 @@
         <v>32000</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>610678</v>
+        <v>589119</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>0.001592</v>
+        <v>0.001701</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,10 +6701,10 @@
         <v>34000</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>621998</v>
+        <v>630978</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0.001715</v>
+        <v>0.00197</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,10 +6715,10 @@
         <v>36000</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>675282</v>
+        <v>680549</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>0.001704</v>
+        <v>0.002046</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,10 +6729,10 @@
         <v>38000</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>685828</v>
+        <v>703845</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>0.002103</v>
+        <v>0.002079</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,10 +6743,10 @@
         <v>40000</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>755315</v>
+        <v>814228</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0.001959</v>
+        <v>0.001968</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,10 +6757,10 @@
         <v>42000</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>830814</v>
+        <v>837623</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0.002454</v>
+        <v>0.002232</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,10 +6771,10 @@
         <v>44000</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>792147</v>
+        <v>816620</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0.002059</v>
+        <v>0.002617</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,10 +6785,10 @@
         <v>46000</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>894663</v>
+        <v>925520</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>0.002569</v>
+        <v>0.002745</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,10 +6799,10 @@
         <v>48000</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>902809</v>
+        <v>1010832</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0.002475</v>
+        <v>0.002556</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,10 +6813,10 @@
         <v>50000</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>934226</v>
+        <v>944760</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0.002557</v>
+        <v>0.003007</v>
       </c>
     </row>
   </sheetData>
@@ -6837,11 +6837,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
